--- a/anki卡片批量.xlsx
+++ b/anki卡片批量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>问题</t>
   </si>
@@ -22,36 +22,12 @@
     <t>答案</t>
   </si>
   <si>
-    <t>注释语句是什么？</t>
-  </si>
-  <si>
-    <t>不会被JVM解释执行的语句，利用其解释说明一段代码。</t>
-  </si>
-  <si>
-    <t>注释语句的种类及格式</t>
-  </si>
-  <si>
-    <t>1. 单行注释 // 2. 多行注释 /* */ 不能嵌套 3. 文档注释（java特有） /** */ 通过javadoc -d ./mydoc -author -version Hello.java 命令生成说明文档（API）</t>
-  </si>
-  <si>
-    <t>标识符是什么</t>
-  </si>
-  <si>
-    <t>java中凡是自己命名的地方，都叫标识符。如：包名、类名、接口名、方法名、变量名、常量名</t>
-  </si>
-  <si>
     <t>标识符的命名规则</t>
   </si>
   <si>
     <t>1. 可使用字母a-z,A-Z,0-9,下划线“_”和美元符“$” 2. 数字不能开头 3. 名字之间不能包含空格 4. 不能使用关键字和保留字，但可包含 5. 严格区分大小写，但长度无限制</t>
   </si>
   <si>
-    <t>关键字和保留字</t>
-  </si>
-  <si>
-    <t>关键字：被java赋予了特殊含义的单词 保留字：被java预订未来需要使用的关键字，目前没用</t>
-  </si>
-  <si>
     <t>标识符的命名规范</t>
   </si>
   <si>
@@ -76,22 +52,49 @@
     <t>1. 在同一作用域内变量名不能重复 2. 作用域：变量作用在所属的那对{}内 3. 局部变量使用前必须赋值 4. 变量要先声明后使用</t>
   </si>
   <si>
-    <t>变量</t>
+    <t>运算符都有哪些</t>
+  </si>
+  <si>
+    <t>1. 算数运算符 ++ -- 2. 赋值运算符 = += 3. 比较运算符：返回boolean 4. 逻辑运算符：逻辑、短路、非、异或 5. 位运算符 6. 三元运算符：(条件)?表达式1：表达式2</t>
+  </si>
+  <si>
+    <t>什么是“面向对象”思想？</t>
+  </si>
+  <si>
+    <t>将现实生活中一类事物的共性内容进行提取，使用 Java 类对其进行描述  1. 面向对象可以将复杂的事情简单化。原来需要面对很多功能行为，现在只需将功能行为封装进对象，面对那一个具有功能行为的对象即可。
+2. 面向对象可以使角色发生转变，从执行者变为指挥者。比如说面试官你是一个指挥者，你招我进来，我就是一个执行者，你只需要利用我编程功能即可，至于我是怎么编的，你不用担心执行细节，交给我即可
+3. 面向对象更加注重前期的设计。一旦设计好后，就具有很强的通用性和可拓展性。
+   1. 通用性（在这能用，在那也能用）。
+   2. 可拓展性：有新功能，只要在功能里加即可，不用改动原来设计好的程序。</t>
+  </si>
+  <si>
+    <t>类的成员</t>
+  </si>
+  <si>
+    <t>属性、方法</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>成员变量、实例变量</t>
+  </si>
+  <si>
+    <t>局部变量、成员变量的区别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. 存储位置：局部变量在栈中，成员变量在堆中
+  2. 作用域：局部变量只在当前作用域{}中有效，成员变量在整个程序内有效
+  3. 初始值：局部变量使用前必须先赋值，没有默认值；成员变量根据数据类型的不同，有默认值。</t>
   </si>
   <si>
     <t>变量的数据类型</t>
   </si>
   <si>
-    <t>自动类型转换</t>
+    <t>自动类型提升</t>
   </si>
   <si>
     <t>强制类型转换</t>
-  </si>
-  <si>
-    <t>运算符都有哪些</t>
-  </si>
-  <si>
-    <t>1. 算数运算符 ++ -- 2. 赋值运算符 = += 3. 比较运算符：返回boolean 4. 逻辑运算符：逻辑、短路、非、异或 5. 位运算符 6. 三元运算符：(条件)?表达式1：表达式2</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,9 +123,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,61 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,31 +213,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +244,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,13 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,45 +503,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -551,12 +519,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,138 +580,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1101,7 +1107,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1121,32 +1127,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
